--- a/biology/Médecine/Endoscopie_biportale_UBE/Endoscopie_biportale_UBE.xlsx
+++ b/biology/Médecine/Endoscopie_biportale_UBE/Endoscopie_biportale_UBE.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">L'endoscopie biportale est une forme d'endoscopie rachidienne. C'est une technique permettant un abord mini invasif de la colonne vertébrale pour le traitement essentiellement des pathologies dégénératives rachidiennes.
-L'endoscopie biportale UBE [1] est une technique à double point d'entrée percutané facilitant l'abord mini invasif des régions cervical, thoracique et lombaire, permettant un geste en triangulation. Elle a été développée en Corée du Sud et est très populaire en Asie. Elle utilise un endoscope de 4 mm (longueur 120 mm) généralement orienté à 30° au niveau de la voie d'abord crâniale, sous irrigation saline continue avec les instruments habituels utilisés en chirurgie vertébrale et une voie instrumentale située en caudal.
-L'UBE[2],[3] permet de traiter des pathologies liées à des hernies discales comprimant un racine nerveuse rachidienne, un canal rachidien rétrécie par l'arthrose comprimant les éléments neurologiques ou bien même des arthrodèses vertébrales (fusion de 2 vertèbres).
+L'endoscopie biportale UBE  est une technique à double point d'entrée percutané facilitant l'abord mini invasif des régions cervical, thoracique et lombaire, permettant un geste en triangulation. Elle a été développée en Corée du Sud et est très populaire en Asie. Elle utilise un endoscope de 4 mm (longueur 120 mm) généralement orienté à 30° au niveau de la voie d'abord crâniale, sous irrigation saline continue avec les instruments habituels utilisés en chirurgie vertébrale et une voie instrumentale située en caudal.
+L'UBE, permet de traiter des pathologies liées à des hernies discales comprimant un racine nerveuse rachidienne, un canal rachidien rétrécie par l'arthrose comprimant les éléments neurologiques ou bien même des arthrodèses vertébrales (fusion de 2 vertèbres).
 Avantages de la chirurgie mini-invasive : limitation des lésions musculaires ; préservation des facettes articulaires et complexe ligamentaire postérieur ; meilleure vision par la pression hydrostatique : aide à la dissection.
 Il existe un abord interlamaire et un autre extracanalaire par exemple au niveau lombaire.
 </t>
